--- a/team_specific_matrix/Western Ky._B.xlsx
+++ b/team_specific_matrix/Western Ky._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2208333333333333</v>
+        <v>0.223728813559322</v>
       </c>
       <c r="C2">
-        <v>0.5125</v>
+        <v>0.5084745762711864</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008333333333333333</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1666666666666667</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09166666666666666</v>
+        <v>0.08813559322033898</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01503759398496241</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C3">
-        <v>0.03759398496240601</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04511278195488722</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6917293233082706</v>
+        <v>0.7044025157232704</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2105263157894737</v>
+        <v>0.2138364779874214</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6285714285714286</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3714285714285714</v>
+        <v>0.3658536585365854</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04712041884816754</v>
+        <v>0.04932735426008968</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01047120418848168</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05235602094240838</v>
+        <v>0.04932735426008968</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3507853403141361</v>
+        <v>0.3273542600896861</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02094240837696335</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1308900523560209</v>
+        <v>0.1300448430493273</v>
       </c>
       <c r="R6">
-        <v>0.05235602094240838</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="S6">
-        <v>0.3350785340314136</v>
+        <v>0.3452914798206278</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E7">
-        <v>0.00625</v>
+        <v>0.005</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1125</v>
+        <v>0.105</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.20625</v>
+        <v>0.185</v>
       </c>
       <c r="R7">
-        <v>0.09375</v>
+        <v>0.09</v>
       </c>
       <c r="S7">
-        <v>0.43125</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.09962406015037593</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01777777777777778</v>
+        <v>0.01691729323308271</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07777777777777778</v>
+        <v>0.07706766917293233</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1133333333333333</v>
+        <v>0.1090225563909774</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02</v>
+        <v>0.01879699248120301</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1533333333333333</v>
+        <v>0.1541353383458647</v>
       </c>
       <c r="R8">
-        <v>0.06888888888888889</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S8">
-        <v>0.4488888888888889</v>
+        <v>0.4530075187969925</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1133333333333333</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02666666666666667</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05333333333333334</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02666666666666667</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.18</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="R9">
-        <v>0.08</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="S9">
-        <v>0.42</v>
+        <v>0.436046511627907</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09291628334866606</v>
+        <v>0.09627329192546584</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0202391904323827</v>
+        <v>0.01940993788819876</v>
       </c>
       <c r="E10">
-        <v>0.0009199632014719411</v>
+        <v>0.0007763975155279503</v>
       </c>
       <c r="F10">
-        <v>0.06163753449862006</v>
+        <v>0.06133540372670807</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1186752529898804</v>
+        <v>0.1218944099378882</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01931922723091076</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2005519779208832</v>
+        <v>0.1940993788819876</v>
       </c>
       <c r="R10">
-        <v>0.08555657773689053</v>
+        <v>0.08462732919254658</v>
       </c>
       <c r="S10">
-        <v>0.4001839926402944</v>
+        <v>0.4052795031055901</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1614173228346457</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09055118110236221</v>
+        <v>0.09294871794871795</v>
       </c>
       <c r="K11">
-        <v>0.2165354330708661</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="L11">
-        <v>0.515748031496063</v>
+        <v>0.5160256410256411</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01574803149606299</v>
+        <v>0.01923076923076923</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7819548872180451</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1654135338345865</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="K12">
-        <v>0.01503759398496241</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="L12">
-        <v>0.01503759398496241</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02255639097744361</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6111111111111112</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03645833333333334</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2395833333333333</v>
+        <v>0.2488262910798122</v>
       </c>
       <c r="I15">
-        <v>0.0625</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="J15">
-        <v>0.2864583333333333</v>
+        <v>0.2863849765258216</v>
       </c>
       <c r="K15">
-        <v>0.04166666666666666</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02083333333333333</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05208333333333334</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2604166666666667</v>
+        <v>0.2676056338028169</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01948051948051948</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1558441558441558</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="I16">
-        <v>0.1103896103896104</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="J16">
-        <v>0.4285714285714285</v>
+        <v>0.4247311827956989</v>
       </c>
       <c r="K16">
-        <v>0.09740259740259741</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02597402597402598</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05194805194805195</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1103896103896104</v>
+        <v>0.1182795698924731</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01340482573726542</v>
+        <v>0.01157407407407407</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2305630026809651</v>
+        <v>0.2337962962962963</v>
       </c>
       <c r="I17">
-        <v>0.06166219839142091</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J17">
-        <v>0.4021447721179625</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K17">
-        <v>0.09651474530831099</v>
+        <v>0.09490740740740741</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01340482573726542</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06166219839142091</v>
+        <v>0.05787037037037037</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1206434316353887</v>
+        <v>0.1157407407407407</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02484472049689441</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2422360248447205</v>
+        <v>0.2408376963350785</v>
       </c>
       <c r="I18">
-        <v>0.09937888198757763</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="J18">
-        <v>0.391304347826087</v>
+        <v>0.3821989528795812</v>
       </c>
       <c r="K18">
-        <v>0.07453416149068323</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02484472049689441</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05590062111801242</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08695652173913043</v>
+        <v>0.07853403141361257</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02534965034965035</v>
+        <v>0.02391304347826087</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2281468531468532</v>
+        <v>0.2253623188405797</v>
       </c>
       <c r="I19">
-        <v>0.07255244755244755</v>
+        <v>0.07101449275362319</v>
       </c>
       <c r="J19">
-        <v>0.3732517482517482</v>
+        <v>0.3702898550724638</v>
       </c>
       <c r="K19">
-        <v>0.1101398601398601</v>
+        <v>0.1123188405797101</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01923076923076923</v>
+        <v>0.02246376811594203</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007246376811594203</v>
       </c>
       <c r="O19">
-        <v>0.06555944055944056</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1057692307692308</v>
+        <v>0.1130434782608696</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Western Ky._B.xlsx
+++ b/team_specific_matrix/Western Ky._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.223728813559322</v>
+        <v>0.2274052478134111</v>
       </c>
       <c r="C2">
-        <v>0.5084745762711864</v>
+        <v>0.5014577259475219</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01016949152542373</v>
+        <v>0.01457725947521866</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1694915254237288</v>
+        <v>0.1690962099125364</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08813559322033898</v>
+        <v>0.08746355685131195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01257861635220126</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="C3">
-        <v>0.03144654088050314</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03773584905660377</v>
+        <v>0.03867403314917127</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7044025157232704</v>
+        <v>0.7182320441988951</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2138364779874214</v>
+        <v>0.2044198895027624</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6097560975609756</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3658536585365854</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04932735426008968</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0179372197309417</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04932735426008968</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3273542600896861</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02242152466367713</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1300448430493273</v>
+        <v>0.128099173553719</v>
       </c>
       <c r="R6">
-        <v>0.05829596412556054</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="S6">
-        <v>0.3452914798206278</v>
+        <v>0.3471074380165289</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="E7">
-        <v>0.005</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="F7">
-        <v>0.055</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.105</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.185</v>
+        <v>0.1814159292035398</v>
       </c>
       <c r="R7">
-        <v>0.09</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="S7">
-        <v>0.44</v>
+        <v>0.4336283185840708</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09962406015037593</v>
+        <v>0.1092150170648464</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01691729323308271</v>
+        <v>0.01535836177474403</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07706766917293233</v>
+        <v>0.07167235494880546</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1090225563909774</v>
+        <v>0.1040955631399317</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01879699248120301</v>
+        <v>0.01877133105802048</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1541353383458647</v>
+        <v>0.1535836177474403</v>
       </c>
       <c r="R8">
-        <v>0.07142857142857142</v>
+        <v>0.07337883959044368</v>
       </c>
       <c r="S8">
-        <v>0.4530075187969925</v>
+        <v>0.4539249146757679</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1046511627906977</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02325581395348837</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05232558139534884</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09883720930232558</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02906976744186046</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1802325581395349</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="R9">
-        <v>0.0755813953488372</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="S9">
-        <v>0.436046511627907</v>
+        <v>0.4432989690721649</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09627329192546584</v>
+        <v>0.09881697981906751</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01940993788819876</v>
+        <v>0.02157272094641614</v>
       </c>
       <c r="E10">
-        <v>0.0007763975155279503</v>
+        <v>0.00208768267223382</v>
       </c>
       <c r="F10">
-        <v>0.06133540372670807</v>
+        <v>0.06123869171885873</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1218944099378882</v>
+        <v>0.1210855949895616</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01630434782608696</v>
+        <v>0.01600556715379262</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1940993788819876</v>
+        <v>0.1899791231732777</v>
       </c>
       <c r="R10">
-        <v>0.08462732919254658</v>
+        <v>0.08837856645789841</v>
       </c>
       <c r="S10">
-        <v>0.4052795031055901</v>
+        <v>0.4008350730688935</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1538461538461539</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09294871794871795</v>
+        <v>0.08707865168539326</v>
       </c>
       <c r="K11">
-        <v>0.217948717948718</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="L11">
-        <v>0.5160256410256411</v>
+        <v>0.5224719101123596</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01923076923076923</v>
+        <v>0.01966292134831461</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7818181818181819</v>
+        <v>0.7643979057591623</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1696969696969697</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="K12">
-        <v>0.01212121212121212</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="L12">
-        <v>0.01818181818181818</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01818181818181818</v>
+        <v>0.01570680628272251</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6521739130434783</v>
+        <v>0.62</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.28</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08695652173913043</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03286384976525822</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2488262910798122</v>
+        <v>0.228448275862069</v>
       </c>
       <c r="I15">
-        <v>0.05633802816901409</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="J15">
-        <v>0.2863849765258216</v>
+        <v>0.2887931034482759</v>
       </c>
       <c r="K15">
-        <v>0.04225352112676056</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0187793427230047</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04694835680751173</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2676056338028169</v>
+        <v>0.271551724137931</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02150537634408602</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1559139784946237</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0.1021505376344086</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="J16">
-        <v>0.4247311827956989</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="K16">
-        <v>0.1075268817204301</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02150537634408602</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04838709677419355</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1182795698924731</v>
+        <v>0.1203703703703704</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01157407407407407</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2337962962962963</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="I17">
         <v>0.05555555555555555</v>
       </c>
       <c r="J17">
-        <v>0.4166666666666667</v>
+        <v>0.4123931623931624</v>
       </c>
       <c r="K17">
-        <v>0.09490740740740741</v>
+        <v>0.1004273504273504</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01388888888888889</v>
+        <v>0.01495726495726496</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05787037037037037</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1157407407407407</v>
+        <v>0.1239316239316239</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02617801047120419</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2408376963350785</v>
+        <v>0.2455357142857143</v>
       </c>
       <c r="I18">
-        <v>0.1047120418848168</v>
+        <v>0.1026785714285714</v>
       </c>
       <c r="J18">
-        <v>0.3821989528795812</v>
+        <v>0.3526785714285715</v>
       </c>
       <c r="K18">
-        <v>0.08900523560209424</v>
+        <v>0.1026785714285714</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02617801047120419</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05235602094240838</v>
+        <v>0.05803571428571429</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07853403141361257</v>
+        <v>0.08928571428571429</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02391304347826087</v>
+        <v>0.02213541666666667</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2253623188405797</v>
+        <v>0.2252604166666667</v>
       </c>
       <c r="I19">
-        <v>0.07101449275362319</v>
+        <v>0.07096354166666667</v>
       </c>
       <c r="J19">
-        <v>0.3702898550724638</v>
+        <v>0.3736979166666667</v>
       </c>
       <c r="K19">
-        <v>0.1123188405797101</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02246376811594203</v>
+        <v>0.02213541666666667</v>
       </c>
       <c r="N19">
-        <v>0.0007246376811594203</v>
+        <v>0.0006510416666666666</v>
       </c>
       <c r="O19">
-        <v>0.06086956521739131</v>
+        <v>0.05729166666666666</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1130434782608696</v>
+        <v>0.11328125</v>
       </c>
     </row>
   </sheetData>
